--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.220900333333333</v>
+        <v>0.020562</v>
       </c>
       <c r="H2">
-        <v>3.662701</v>
+        <v>0.061686</v>
       </c>
       <c r="I2">
-        <v>0.0143223708955457</v>
+        <v>0.0002281281878049052</v>
       </c>
       <c r="J2">
-        <v>0.01432237089554569</v>
+        <v>0.0002281281878049052</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,90 +552,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08586000000000001</v>
+        <v>0.005070666666666667</v>
       </c>
       <c r="N2">
-        <v>0.25758</v>
+        <v>0.015212</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008865695667453655</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008865695667453653</v>
       </c>
       <c r="Q2">
-        <v>0.10482650262</v>
+        <v>0.000104263048</v>
       </c>
       <c r="R2">
-        <v>0.9434385235800001</v>
+        <v>0.000938367432</v>
       </c>
       <c r="S2">
-        <v>0.0143223708955457</v>
+        <v>2.022515086246002E-06</v>
       </c>
       <c r="T2">
-        <v>0.01432237089554569</v>
+        <v>2.022515086246002E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.020562</v>
+      </c>
+      <c r="H3">
+        <v>0.061686</v>
+      </c>
+      <c r="I3">
+        <v>0.0002281281878049052</v>
+      </c>
+      <c r="J3">
+        <v>0.0002281281878049052</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.700615</v>
+      </c>
+      <c r="O3">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P3">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q3">
+        <v>0.01165601521</v>
+      </c>
+      <c r="R3">
+        <v>0.10490413689</v>
+      </c>
+      <c r="S3">
+        <v>0.0002261056727186593</v>
+      </c>
+      <c r="T3">
+        <v>0.0002261056727186593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01154533333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.034636</v>
+      </c>
+      <c r="I4">
+        <v>0.0001280914293812323</v>
+      </c>
+      <c r="J4">
+        <v>0.0001280914293812324</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.005070666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.015212</v>
+      </c>
+      <c r="O4">
+        <v>0.008865695667453655</v>
+      </c>
+      <c r="P4">
+        <v>0.008865695667453653</v>
+      </c>
+      <c r="Q4">
+        <v>5.854253688888889E-05</v>
+      </c>
+      <c r="R4">
+        <v>0.000526882832</v>
+      </c>
+      <c r="S4">
+        <v>1.135619630503137E-06</v>
+      </c>
+      <c r="T4">
+        <v>1.135619630503137E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01154533333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.034636</v>
+      </c>
+      <c r="I5">
+        <v>0.0001280914293812323</v>
+      </c>
+      <c r="J5">
+        <v>0.0001280914293812324</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.700615</v>
+      </c>
+      <c r="O5">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P5">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q5">
+        <v>0.006544722348888888</v>
+      </c>
+      <c r="R5">
+        <v>0.05890250114</v>
+      </c>
+      <c r="S5">
+        <v>0.0001269558097507292</v>
+      </c>
+      <c r="T5">
+        <v>0.0001269558097507292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>84.02338933333334</v>
-      </c>
-      <c r="H3">
-        <v>252.070168</v>
-      </c>
-      <c r="I3">
-        <v>0.9856776291044543</v>
-      </c>
-      <c r="J3">
-        <v>0.9856776291044543</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>90.10142766666667</v>
+      </c>
+      <c r="H6">
+        <v>270.304283</v>
+      </c>
+      <c r="I6">
+        <v>0.9996437803828139</v>
+      </c>
+      <c r="J6">
+        <v>0.9996437803828139</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M3">
-        <v>0.08586000000000001</v>
-      </c>
-      <c r="N3">
-        <v>0.25758</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>7.214248208160001</v>
-      </c>
-      <c r="R3">
-        <v>64.92823387344001</v>
-      </c>
-      <c r="S3">
-        <v>0.9856776291044543</v>
-      </c>
-      <c r="T3">
-        <v>0.9856776291044543</v>
+      <c r="M6">
+        <v>0.005070666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.015212</v>
+      </c>
+      <c r="O6">
+        <v>0.008865695667453655</v>
+      </c>
+      <c r="P6">
+        <v>0.008865695667453653</v>
+      </c>
+      <c r="Q6">
+        <v>0.4568743058884445</v>
+      </c>
+      <c r="R6">
+        <v>4.111868752996</v>
+      </c>
+      <c r="S6">
+        <v>0.008862537532736905</v>
+      </c>
+      <c r="T6">
+        <v>0.008862537532736903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>90.10142766666667</v>
+      </c>
+      <c r="H7">
+        <v>270.304283</v>
+      </c>
+      <c r="I7">
+        <v>0.9996437803828139</v>
+      </c>
+      <c r="J7">
+        <v>0.9996437803828139</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.700615</v>
+      </c>
+      <c r="O7">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P7">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q7">
+        <v>51.07594647044944</v>
+      </c>
+      <c r="R7">
+        <v>459.683518234045</v>
+      </c>
+      <c r="S7">
+        <v>0.990781242850077</v>
+      </c>
+      <c r="T7">
+        <v>0.990781242850077</v>
       </c>
     </row>
   </sheetData>
